--- a/dist/document/dest/2020/10/doctors/155.xlsx
+++ b/dist/document/dest/2020/10/doctors/155.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>883</v>
       </c>
-      <c r="C2" s="1">
-        <v>4569525</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>1170</v>
       </c>
-      <c r="C3" s="1">
-        <v>7850700</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>690</v>
       </c>
-      <c r="C5" s="1">
-        <v>4478100</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1700</v>
       </c>
-      <c r="C6" s="1">
-        <v>9775000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>495000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>190</v>
       </c>
-      <c r="C8" s="1">
-        <v>1421200</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>645</v>
       </c>
-      <c r="C9" s="1">
-        <v>4966500</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1134</v>
       </c>
-      <c r="C10" s="1">
-        <v>8731800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>60</v>
       </c>
-      <c r="C11" s="1">
-        <v>179400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>840</v>
       </c>
-      <c r="C12" s="1">
-        <v>3864000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>630</v>
       </c>
-      <c r="C13" s="1">
-        <v>2173500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>240</v>
       </c>
-      <c r="C14" s="1">
-        <v>3828000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>124</v>
       </c>
-      <c r="C15" s="1">
-        <v>406100</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>180</v>
       </c>
-      <c r="C16" s="1">
-        <v>828000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>888</v>
       </c>
-      <c r="C17" s="1">
-        <v>3316680</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>370</v>
       </c>
-      <c r="C18" s="1">
-        <v>3622300</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>300</v>
       </c>
-      <c r="C19" s="1">
-        <v>774000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>141</v>
       </c>
-      <c r="C20" s="1">
-        <v>1977525</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>60</v>
       </c>
-      <c r="C21" s="1">
-        <v>432300</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>285</v>
       </c>
-      <c r="C22" s="1">
-        <v>2351250</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>635</v>
       </c>
-      <c r="C23" s="1">
-        <v>9080500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1432</v>
       </c>
-      <c r="C24" s="1">
-        <v>8234000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>288</v>
       </c>
-      <c r="C25" s="1">
-        <v>4910400</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>682</v>
       </c>
-      <c r="C26" s="1">
-        <v>6751800</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>202</v>
       </c>
-      <c r="C27" s="1">
-        <v>17331600</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>424</v>
       </c>
-      <c r="C28" s="1">
-        <v>7322480</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>345</v>
       </c>
-      <c r="C29" s="1">
-        <v>1150575</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>45</v>
       </c>
-      <c r="C30" s="1">
-        <v>217350</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>350</v>
       </c>
-      <c r="C31" s="1">
-        <v>22050000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>480</v>
       </c>
-      <c r="C33" s="1">
-        <v>2208000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>90</v>
       </c>
-      <c r="C34" s="1">
-        <v>514800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>120</v>
       </c>
-      <c r="C35" s="1">
-        <v>990000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
-        <v>514800</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>180</v>
       </c>
-      <c r="C37" s="1">
-        <v>621000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>600</v>
       </c>
-      <c r="C38" s="1">
-        <v>2277000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>290</v>
       </c>
-      <c r="C39" s="1">
-        <v>5104000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>432</v>
       </c>
-      <c r="C40" s="1">
-        <v>1540080</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>300</v>
       </c>
-      <c r="C41" s="1">
-        <v>2244000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>119</v>
       </c>
-      <c r="C42" s="1">
-        <v>2225300</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>84</v>
       </c>
-      <c r="C43" s="1">
-        <v>454020</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>570</v>
       </c>
-      <c r="C44" s="1">
-        <v>1835400</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>330</v>
       </c>
-      <c r="C45" s="1">
-        <v>607200</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>360</v>
       </c>
-      <c r="C46" s="1">
-        <v>4554000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>690</v>
       </c>
-      <c r="C47" s="1">
-        <v>3808800</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>3</v>
       </c>
-      <c r="C48" s="1">
-        <v>866400</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>70</v>
       </c>
-      <c r="C49" s="1">
-        <v>281750</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>300</v>
       </c>
-      <c r="C50" s="1">
-        <v>3795000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>120</v>
       </c>
-      <c r="C51" s="1">
-        <v>552000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>1130</v>
       </c>
-      <c r="C52" s="1">
-        <v>12305700</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="1">
-        <v>91100</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>10</v>
       </c>
-      <c r="C54" s="1">
-        <v>10000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>750</v>
       </c>
-      <c r="C55" s="1">
-        <v>3105000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="1">
-        <v>483000</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>720</v>
       </c>
-      <c r="C57" s="1">
-        <v>2401200</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>20</v>
       </c>
-      <c r="C58" s="1">
-        <v>9100</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>60</v>
       </c>
-      <c r="C59" s="1">
-        <v>1089000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>210</v>
       </c>
-      <c r="C60" s="1">
-        <v>1617000</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>500</v>
       </c>
-      <c r="C61" s="1">
-        <v>8250000</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>270</v>
       </c>
-      <c r="C62" s="1">
-        <v>1930500</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>300</v>
       </c>
-      <c r="C63" s="1">
-        <v>1621500</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>1046</v>
       </c>
-      <c r="C64" s="1">
-        <v>9204800</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>40</v>
       </c>
-      <c r="C65" s="1">
-        <v>739200</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>60</v>
       </c>
-      <c r="C66" s="1">
-        <v>2310000</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>180</v>
       </c>
-      <c r="C67" s="1">
-        <v>558900</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>240</v>
       </c>
-      <c r="C68" s="1">
-        <v>303600</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>846</v>
       </c>
-      <c r="C69" s="1">
-        <v>6421140</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>1398</v>
       </c>
-      <c r="C70" s="1">
-        <v>12225510</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>750</v>
       </c>
-      <c r="C71" s="1">
-        <v>2846250</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>255</v>
       </c>
-      <c r="C72" s="1">
-        <v>2187900</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>408</v>
       </c>
-      <c r="C73" s="1">
-        <v>3106920</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>420</v>
       </c>
-      <c r="C74" s="1">
-        <v>2221800</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>1704</v>
       </c>
-      <c r="C75" s="1">
-        <v>19868640</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1219,7 +997,7 @@
         <v>31759</v>
       </c>
       <c r="C76" s="1">
-        <v>273439395</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/155.xlsx
+++ b/dist/document/dest/2020/10/doctors/155.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,10 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>883</v>
+        <v>330</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1707750</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +413,10 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>1170</v>
+        <v>1110</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7448100</v>
       </c>
     </row>
     <row r="4">
@@ -418,175 +424,241 @@
         <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>120</v>
+        <v>260</v>
+      </c>
+      <c r="C4" s="1">
+        <v>897000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>690</v>
+        <v>450</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3960000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>1700</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>528000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1947000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>190</v>
+        <v>580</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3335000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>645</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B10" s="1">
-        <v>1134</v>
+        <v>86</v>
+      </c>
+      <c r="C10" s="1">
+        <v>643280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B11" s="1">
-        <v>60</v>
+        <v>345</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2656500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B12" s="1">
-        <v>840</v>
+        <v>790</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6083000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>630</v>
+        <v>720</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3312000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Batitop (Clarithromycin 500mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Batitop (Clarithromycin 500mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>124</v>
+        <v>190</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3030500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>180</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="1">
+        <v>262000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>888</v>
+        <v>360</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1656000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>370</v>
+        <v>686</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2562210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>300</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1683000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Cardival (Valsartan 80mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>141</v>
+        <v>210</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1732500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>60</v>
+        <v>690</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9867000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B22" s="1">
-        <v>285</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B23" s="1">
-        <v>635</v>
+        <v>670</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3852500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>1432</v>
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1705000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>288</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="26">
@@ -594,7 +666,10 @@
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>682</v>
+        <v>279</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2762100</v>
       </c>
     </row>
     <row r="27">
@@ -602,7 +677,10 @@
         <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B27" s="1">
-        <v>202</v>
+        <v>112</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9609600</v>
       </c>
     </row>
     <row r="28">
@@ -610,7 +688,10 @@
         <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>424</v>
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1727000</v>
       </c>
     </row>
     <row r="29">
@@ -618,7 +699,10 @@
         <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>345</v>
+        <v>210</v>
+      </c>
+      <c r="C29" s="1">
+        <v>700350</v>
       </c>
     </row>
     <row r="30">
@@ -626,7 +710,10 @@
         <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>362250</v>
       </c>
     </row>
     <row r="31">
@@ -634,7 +721,10 @@
         <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
       </c>
       <c r="B31" s="1">
-        <v>350</v>
+        <v>126</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7938000</v>
       </c>
     </row>
     <row r="32">
@@ -644,29 +734,41 @@
       <c r="B32" s="1">
         <v>10</v>
       </c>
+      <c r="C32" s="1">
+        <v>34500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
         <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>480</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>90</v>
+        <v>420</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1932000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>120</v>
+        <v>315</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1801800</v>
       </c>
     </row>
     <row r="36">
@@ -674,7 +776,10 @@
         <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
+        <v>128700</v>
       </c>
     </row>
     <row r="37">
@@ -682,7 +787,10 @@
         <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>180</v>
+        <v>130</v>
+      </c>
+      <c r="C37" s="1">
+        <v>448500</v>
       </c>
     </row>
     <row r="38">
@@ -690,7 +798,10 @@
         <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B38" s="1">
-        <v>600</v>
+        <v>300</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="39">
@@ -698,87 +809,120 @@
         <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B39" s="1">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>176000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B40" s="1">
-        <v>432</v>
+        <v>150</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2640000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B41" s="1">
-        <v>300</v>
+        <v>240</v>
+      </c>
+      <c r="C41" s="1">
+        <v>855600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>119</v>
+        <v>90</v>
+      </c>
+      <c r="C42" s="1">
+        <v>673200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>84</v>
+        <v>138</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2580600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>570</v>
+        <v>55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>297275</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>330</v>
+        <v>231</v>
+      </c>
+      <c r="C45" s="1">
+        <v>743820</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>360</v>
+        <v>210</v>
+      </c>
+      <c r="C46" s="1">
+        <v>386400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>690</v>
+        <v>150</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1897500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Nazoster (Mometasone furoate monohydrate)</v>
+        <v>Mezondin (Thymomodulin 80mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>480</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2649600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
       </c>
       <c r="B49" s="1">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>577600</v>
       </c>
     </row>
     <row r="50">
@@ -786,7 +930,10 @@
         <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>300</v>
+        <v>270</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3415500</v>
       </c>
     </row>
     <row r="51">
@@ -794,7 +941,10 @@
         <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C51" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="52">
@@ -802,95 +952,131 @@
         <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>1130</v>
+        <v>605</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6588450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+        <v>Pharcotinex</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1490400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Philiver (Carduus, vitamin..)</v>
       </c>
       <c r="B54" s="1">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="C54" s="1">
+        <v>362250</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Pharcotinex</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="B55" s="1">
-        <v>750</v>
+        <v>760</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2534600</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B56" s="1">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7280</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Prorid (Finasteride 5 mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>720</v>
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
       </c>
       <c r="B58" s="1">
-        <v>20</v>
+        <v>180</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1386000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Reprat (Pantoprazole 40mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Reprat (Pantoprazole 40mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>210</v>
+        <v>390</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6435000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Reprat (Pantoprazole 40mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>500</v>
+        <v>240</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1716000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>270</v>
+        <v>70</v>
+      </c>
+      <c r="C62" s="1">
+        <v>378350</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Somexwell (Esomeprazole 20mg</v>
       </c>
       <c r="B63" s="1">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>264000</v>
       </c>
     </row>
     <row r="64">
@@ -898,31 +1084,43 @@
         <v>Somexwell (Esomeprazole 20mg</v>
       </c>
       <c r="B64" s="1">
-        <v>1046</v>
+        <v>770</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6776000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Spulit (Itraconazol 100mg)</v>
+        <v>Stemvir (Tenofovir 300mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Strecalis (Eperisone 50mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>93150</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Stroseca (Ivermectin 6mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>180</v>
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>440000</v>
       </c>
     </row>
     <row r="68">
@@ -930,7 +1128,10 @@
         <v>Tazilex (Methimazol 5mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="C68" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="69">
@@ -938,71 +1139,125 @@
         <v>Telod (Telmisartan 40mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>846</v>
+        <v>450</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3415500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Tetracyclin 500mg</v>
       </c>
       <c r="B70" s="1">
-        <v>1398</v>
+        <v>177</v>
+      </c>
+      <c r="C70" s="1">
+        <v>172575</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>Trimebutine Gerda 200mg</v>
       </c>
       <c r="B71" s="1">
-        <v>750</v>
+        <v>640</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5596800</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>255</v>
+        <v>120</v>
+      </c>
+      <c r="C72" s="1">
+        <v>544800</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>408</v>
+        <v>520</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1973400</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Vigorito (Vildagliptin 50mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>420</v>
+        <v>285</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2445300</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="B75" s="1">
-        <v>1704</v>
+        <v>240</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1827600</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>300</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1587000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C78" s="1">
+        <v>16790400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B76" s="1">
-        <v>31759</v>
-      </c>
-      <c r="C76" s="1">
-        <v>NaN</v>
+      <c r="B79" s="1">
+        <v>20639</v>
+      </c>
+      <c r="C79" s="1">
+        <v>173659490</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C79"/>
   </ignoredErrors>
 </worksheet>
 </file>